--- a/gpu/lab1_01/отчёт.xlsx
+++ b/gpu/lab1_01/отчёт.xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stepa\repos2\gpu\lab1_01\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24042" windowHeight="9128"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="results — копия (2)" sheetId="1" r:id="rId3"/>
+    <sheet name="results — копия (2)" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -37,52 +45,70 @@
     <t>Вывод: На основе полученных результатов на моём компьютере лучшее время суммирования двух векторов с помощью ГПУ достигается при количестве нитей 64.</t>
   </si>
   <si>
-    <t>Ограничение в 64 потока здесь из-за  возможностей видеокарты. 1024/16=64</t>
+    <t>Ограничение в 64 потока здесь из-за  возможностей видеокарты. 1024(нити)/16(мультипроцессоров)=64(число нитей, обеспечивающее оптимальную загрузку всех! мультипроцессоров)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -106,9 +132,11 @@
       </c:tx>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -116,6 +144,12 @@
           <c:tx>
             <c:strRef>
               <c:f>'results — копия (2)'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:marker>
@@ -133,6 +167,13 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -140,6 +181,7 @@
                 <a:pPr lvl="0">
                   <a:defRPr b="0" i="0"/>
                 </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -148,19 +190,132 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'results — копия (2)'!$A$4:$A$17</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8388608</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'results — копия (2)'!$B$4:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2722</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2804</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2102</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2566</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4226</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6087</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10512</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21150</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37346</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70741</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>137442</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>270719</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>540156</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C3B5-4344-B44A-3AC3EDD63544}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="38029099"/>
         <c:axId val="916811840"/>
       </c:lineChart>
@@ -193,6 +348,10 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -205,9 +364,15 @@
                 <a:latin typeface="Roboto"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="916811840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="916811840"/>
@@ -259,6 +424,8 @@
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="47625">
@@ -277,9 +444,12 @@
                 <a:latin typeface="Roboto"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="38029099"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -297,16 +467,28 @@
               <a:latin typeface="Roboto"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -323,16 +505,28 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>time относительно параметра "arrSizeN"</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>time </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>относительно параметра "</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>arrSizeN"</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -340,23 +534,135 @@
           <c:tx>
             <c:strRef>
               <c:f>'results — копия (2)'!$B$165</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'results — копия (2)'!$A$166:$A$179</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8388608</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'results — копия (2)'!$B$166:$B$179</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1749</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2227</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2228</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3438</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3508</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2319</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2926</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3385</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4503</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4865</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6558</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8957</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15030</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D505-4257-A033-BD6609B51083}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="1763137614"/>
         <c:axId val="682539576"/>
       </c:lineChart>
@@ -382,13 +688,19 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-US"/>
                   <a:t>arrSizeN</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -401,9 +713,15 @@
                 <a:latin typeface="Roboto"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="682539576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="682539576"/>
@@ -447,14 +765,18 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-US"/>
                   <a:t>time</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="47625">
@@ -473,13 +795,17 @@
                 <a:latin typeface="Roboto"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1763137614"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -493,16 +819,28 @@
               <a:latin typeface="Roboto"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -526,9 +864,11 @@
       </c:tx>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -536,23 +876,135 @@
           <c:tx>
             <c:strRef>
               <c:f>'results — копия (2)'!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'results — копия (2)'!$A$22:$A$35</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8388608</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'results — копия (2)'!$B$22:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1883</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2161</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3805</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2435</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3306</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3544</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5668</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6547</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11407</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20583</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38451</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71079</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>138004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>272248</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3B0D-4308-9518-28C360424005}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="1918612747"/>
         <c:axId val="2036783881"/>
       </c:lineChart>
@@ -585,6 +1037,10 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -597,9 +1053,15 @@
                 <a:latin typeface="Roboto"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2036783881"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="2036783881"/>
@@ -651,6 +1113,8 @@
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="47625">
@@ -669,9 +1133,12 @@
                 <a:latin typeface="Roboto"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1918612747"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -689,16 +1156,28 @@
               <a:latin typeface="Roboto"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -722,9 +1201,11 @@
       </c:tx>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -732,23 +1213,135 @@
           <c:tx>
             <c:strRef>
               <c:f>'results — копия (2)'!$B$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'results — копия (2)'!$A$40:$A$53</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8388608</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'results — копия (2)'!$B$40:$B$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2138</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3656</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2227</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2670</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2444</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3172</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3738</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4290</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7563</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12135</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20851</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>37506</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>71602</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>138711</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EAB8-44A1-A842-BAD47B1D7914}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="986423408"/>
         <c:axId val="605589373"/>
       </c:lineChart>
@@ -781,6 +1374,10 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -793,9 +1390,15 @@
                 <a:latin typeface="Roboto"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="605589373"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="605589373"/>
@@ -847,6 +1450,8 @@
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="47625">
@@ -865,9 +1470,12 @@
                 <a:latin typeface="Roboto"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="986423408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -885,16 +1493,28 @@
               <a:latin typeface="Roboto"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -911,16 +1531,28 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>time относительно параметра "arrSizeN"</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>time </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>относительно параметра "</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>arrSizeN"</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -928,23 +1560,135 @@
           <c:tx>
             <c:strRef>
               <c:f>'results — копия (2)'!$B$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'results — копия (2)'!$A$58:$A$71</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8388608</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'results — копия (2)'!$B$58:$B$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>3465</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2287</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2939</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2970</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3869</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3730</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5467</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8478</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12670</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22505</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40144</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>76306</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BDDF-42D2-BD8D-7AC8B3EB62C6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="1273843003"/>
         <c:axId val="1161453755"/>
       </c:lineChart>
@@ -970,13 +1714,19 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-US"/>
                   <a:t>arrSizeN</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -989,9 +1739,15 @@
                 <a:latin typeface="Roboto"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1161453755"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="1161453755"/>
@@ -1035,14 +1791,18 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-US"/>
                   <a:t>time</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="47625">
@@ -1061,13 +1821,17 @@
                 <a:latin typeface="Roboto"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1273843003"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -1081,16 +1845,28 @@
               <a:latin typeface="Roboto"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1107,16 +1883,28 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>time относительно параметра "arrSizeN"</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>time </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>относительно параметра "</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>arrSizeN"</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1124,23 +1912,135 @@
           <c:tx>
             <c:strRef>
               <c:f>'results — копия (2)'!$B$75</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'results — копия (2)'!$A$76:$A$89</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8388608</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'results — копия (2)'!$B$76:$B$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1890</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1730</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2364</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2234</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2659</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2862</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3162</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4551</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6339</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8095</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12923</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21981</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40950</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B02D-4219-B0FB-3854C5C85081}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="847502320"/>
         <c:axId val="287713444"/>
       </c:lineChart>
@@ -1166,13 +2066,19 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-US"/>
                   <a:t>arrSizeN</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -1185,9 +2091,15 @@
                 <a:latin typeface="Roboto"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="287713444"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="287713444"/>
@@ -1231,14 +2143,18 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-US"/>
                   <a:t>time</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="47625">
@@ -1257,13 +2173,17 @@
                 <a:latin typeface="Roboto"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="847502320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -1277,16 +2197,28 @@
               <a:latin typeface="Roboto"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1303,16 +2235,28 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>time относительно параметра "arrSizeN"</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>time </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>относительно параметра "</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>arrSizeN"</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1320,23 +2264,135 @@
           <c:tx>
             <c:strRef>
               <c:f>'results — копия (2)'!$B$93</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'results — копия (2)'!$A$94:$A$107</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8388608</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'results — копия (2)'!$B$94:$B$107</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2290</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2438</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2524</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3539</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2243</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2847</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2526</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2699</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3752</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5347</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6083</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9650</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15139</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23106</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5429-4B76-B486-C5A965599DAE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="83449838"/>
         <c:axId val="1318187617"/>
       </c:lineChart>
@@ -1362,13 +2418,19 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-US"/>
                   <a:t>arrSizeN</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -1381,9 +2443,15 @@
                 <a:latin typeface="Roboto"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1318187617"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="1318187617"/>
@@ -1427,14 +2495,18 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-US"/>
                   <a:t>time</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="47625">
@@ -1453,13 +2525,17 @@
                 <a:latin typeface="Roboto"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="83449838"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -1473,16 +2549,28 @@
               <a:latin typeface="Roboto"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1499,16 +2587,28 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>time относительно параметра "arrSizeN"</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>time </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>относительно параметра "</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>arrSizeN"</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1516,23 +2616,135 @@
           <c:tx>
             <c:strRef>
               <c:f>'results — копия (2)'!$B$111</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'results — копия (2)'!$A$112:$A$125</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8388608</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'results — копия (2)'!$B$112:$B$125</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>3726</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2681</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2320</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1736</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2054</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2267</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2475</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2873</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3467</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4676</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6678</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6524</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9181</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14809</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2955-4C69-9A9C-64BC5AEC0EBB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="203015890"/>
         <c:axId val="192983864"/>
       </c:lineChart>
@@ -1558,13 +2770,19 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-US"/>
                   <a:t>arrSizeN</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -1577,9 +2795,15 @@
                 <a:latin typeface="Roboto"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="192983864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="192983864"/>
@@ -1623,14 +2847,18 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-US"/>
                   <a:t>time</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="47625">
@@ -1649,13 +2877,17 @@
                 <a:latin typeface="Roboto"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="203015890"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -1669,16 +2901,28 @@
               <a:latin typeface="Roboto"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1695,16 +2939,28 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>time относительно параметра "arrSizeN"</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>time </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>относительно параметра "</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>arrSizeN"</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1712,23 +2968,135 @@
           <c:tx>
             <c:strRef>
               <c:f>'results — копия (2)'!$B$129</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'results — копия (2)'!$A$130:$A$143</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8388608</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'results — копия (2)'!$B$130:$B$143</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2376</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2908</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2274</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1918</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2356</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2652</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3449</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4391</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5464</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7182</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14390</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8813-4B6C-AF86-7C71EDF65F68}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="290503381"/>
         <c:axId val="1368444645"/>
       </c:lineChart>
@@ -1754,13 +3122,19 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-US"/>
                   <a:t>arrSizeN</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -1773,9 +3147,15 @@
                 <a:latin typeface="Roboto"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1368444645"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="1368444645"/>
@@ -1819,14 +3199,18 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-US"/>
                   <a:t>time</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="47625">
@@ -1845,13 +3229,17 @@
                 <a:latin typeface="Roboto"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="290503381"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -1865,16 +3253,28 @@
               <a:latin typeface="Roboto"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1891,16 +3291,28 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>time относительно параметра "arrSizeN"</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>time </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>относительно параметра "</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>arrSizeN"</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1908,23 +3320,135 @@
           <c:tx>
             <c:strRef>
               <c:f>'results — копия (2)'!$B$147</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'results — копия (2)'!$A$148:$A$161</c:f>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8388608</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'results — копия (2)'!$B$148:$B$161</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2904</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1790</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1715</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2458</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2378</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2518</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2688</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3487</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4628</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5879</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6406</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14422</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-38F4-4341-9ADE-7CF2166AE8D0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="544651900"/>
         <c:axId val="2064891416"/>
       </c:lineChart>
@@ -1950,13 +3474,19 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-US"/>
                   <a:t>arrSizeN</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -1969,9 +3499,15 @@
                 <a:latin typeface="Roboto"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2064891416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="2064891416"/>
@@ -2015,14 +3551,18 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-US"/>
                   <a:t>time</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="47625">
@@ -2041,13 +3581,17 @@
                 <a:latin typeface="Roboto"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="544651900"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -2061,16 +3605,24 @@
               <a:latin typeface="Roboto"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -2079,9 +3631,9 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart 1" title="Диаграмма"/>
+        <xdr:cNvPr id="2" name="Chart 1" title="Диаграмма"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2090,7 +3642,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2104,9 +3656,9 @@
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 2" title="Диаграмма"/>
+        <xdr:cNvPr id="3" name="Chart 2" title="Диаграмма"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2115,7 +3667,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2129,9 +3681,9 @@
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 3" title="Диаграмма"/>
+        <xdr:cNvPr id="4" name="Chart 3" title="Диаграмма"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2140,7 +3692,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2154,9 +3706,9 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 4" title="Диаграмма"/>
+        <xdr:cNvPr id="5" name="Chart 4" title="Диаграмма"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2165,7 +3717,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2179,9 +3731,9 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 5" title="Диаграмма"/>
+        <xdr:cNvPr id="6" name="Chart 5" title="Диаграмма"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2190,7 +3742,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2204,9 +3756,9 @@
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 6" title="Диаграмма"/>
+        <xdr:cNvPr id="7" name="Chart 6" title="Диаграмма"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2215,7 +3767,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId6"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2229,9 +3781,9 @@
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 7" title="Диаграмма"/>
+        <xdr:cNvPr id="8" name="Chart 7" title="Диаграмма"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2240,7 +3792,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId7"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2254,9 +3806,9 @@
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 8" title="Диаграмма"/>
+        <xdr:cNvPr id="9" name="Chart 8" title="Диаграмма"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2265,7 +3817,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId8"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2279,9 +3831,9 @@
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 9" title="Диаграмма"/>
+        <xdr:cNvPr id="10" name="Chart 9" title="Диаграмма"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2290,7 +3842,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId9"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2304,9 +3856,9 @@
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 10" title="Диаграмма"/>
+        <xdr:cNvPr id="11" name="Chart 10" title="Диаграмма"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2315,7 +3867,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId10"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2324,20 +3876,284 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+  <a:themeElements>
+    <a:clrScheme name="Стандартная">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Стандартная">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Стандартная">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E187"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="A187" sqref="A187"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.85" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="4" max="4" width="25.57"/>
+    <col min="4" max="4" width="25.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2348,7 +4164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2362,122 +4178,122 @@
         <v>6</v>
       </c>
       <c r="E3" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>1024.0</v>
+        <v>1024</v>
       </c>
       <c r="B4" s="1">
-        <v>2722.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>2722</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>2048.0</v>
+        <v>2048</v>
       </c>
       <c r="B5" s="1">
-        <v>2804.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>2804</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>4096.0</v>
+        <v>4096</v>
       </c>
       <c r="B6" s="1">
-        <v>2102.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>8192.0</v>
+        <v>8192</v>
       </c>
       <c r="B7" s="1">
-        <v>2007.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>16384.0</v>
+        <v>16384</v>
       </c>
       <c r="B8" s="1">
-        <v>2566.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>32768.0</v>
+        <v>32768</v>
       </c>
       <c r="B9" s="1">
-        <v>4226.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>4226</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>65536.0</v>
+        <v>65536</v>
       </c>
       <c r="B10" s="1">
-        <v>6087.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>6087</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>131072.0</v>
+        <v>131072</v>
       </c>
       <c r="B11" s="1">
-        <v>10512.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>10512</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>262144.0</v>
+        <v>262144</v>
       </c>
       <c r="B12" s="1">
-        <v>21150.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>21150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>524288.0</v>
+        <v>524288</v>
       </c>
       <c r="B13" s="1">
-        <v>37346.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>37346</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>1048576.0</v>
+        <v>1048576</v>
       </c>
       <c r="B14" s="1">
-        <v>70741.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>70741</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>2097152.0</v>
+        <v>2097152</v>
       </c>
       <c r="B15" s="1">
-        <v>137442.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>137442</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>4194304.0</v>
+        <v>4194304</v>
       </c>
       <c r="B16" s="1">
-        <v>270719.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>270719</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>8388608.0</v>
+        <v>8388608</v>
       </c>
       <c r="B17" s="1">
-        <v>540156.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>540156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -2488,7 +4304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -2502,122 +4318,122 @@
         <v>6</v>
       </c>
       <c r="E21" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>1024.0</v>
+        <v>1024</v>
       </c>
       <c r="B22" s="1">
-        <v>1883.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>2048.0</v>
+        <v>2048</v>
       </c>
       <c r="B23" s="1">
-        <v>2161.0</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>4096.0</v>
+        <v>4096</v>
       </c>
       <c r="B24" s="1">
-        <v>3805.0</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>3805</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>8192.0</v>
+        <v>8192</v>
       </c>
       <c r="B25" s="1">
-        <v>2435.0</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>16384.0</v>
+        <v>16384</v>
       </c>
       <c r="B26" s="1">
-        <v>3306.0</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>3306</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>32768.0</v>
+        <v>32768</v>
       </c>
       <c r="B27" s="1">
-        <v>3544.0</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>3544</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>65536.0</v>
+        <v>65536</v>
       </c>
       <c r="B28" s="1">
-        <v>5668.0</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>5668</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>131072.0</v>
+        <v>131072</v>
       </c>
       <c r="B29" s="1">
-        <v>6547.0</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>6547</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>262144.0</v>
+        <v>262144</v>
       </c>
       <c r="B30" s="1">
-        <v>11407.0</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>11407</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>524288.0</v>
+        <v>524288</v>
       </c>
       <c r="B31" s="1">
-        <v>20583.0</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>20583</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>1048576.0</v>
+        <v>1048576</v>
       </c>
       <c r="B32" s="1">
-        <v>38451.0</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>38451</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>2097152.0</v>
+        <v>2097152</v>
       </c>
       <c r="B33" s="1">
-        <v>71079.0</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>71079</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>4194304.0</v>
+        <v>4194304</v>
       </c>
       <c r="B34" s="1">
-        <v>138004.0</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>138004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>8388608.0</v>
+        <v>8388608</v>
       </c>
       <c r="B35" s="1">
-        <v>272248.0</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>272248</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
@@ -2628,7 +4444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>3</v>
       </c>
@@ -2642,122 +4458,122 @@
         <v>6</v>
       </c>
       <c r="E39" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>1024.0</v>
+        <v>1024</v>
       </c>
       <c r="B40" s="1">
-        <v>2138.0</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>2048.0</v>
+        <v>2048</v>
       </c>
       <c r="B41" s="1">
-        <v>3656.0</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>3656</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>4096.0</v>
+        <v>4096</v>
       </c>
       <c r="B42" s="1">
-        <v>2227.0</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>8192.0</v>
+        <v>8192</v>
       </c>
       <c r="B43" s="1">
-        <v>2670.0</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>16384.0</v>
+        <v>16384</v>
       </c>
       <c r="B44" s="1">
-        <v>2444.0</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>32768.0</v>
+        <v>32768</v>
       </c>
       <c r="B45" s="1">
-        <v>3172.0</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>3172</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>65536.0</v>
+        <v>65536</v>
       </c>
       <c r="B46" s="1">
-        <v>3738.0</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>3738</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>131072.0</v>
+        <v>131072</v>
       </c>
       <c r="B47" s="1">
-        <v>4290.0</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>4290</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>262144.0</v>
+        <v>262144</v>
       </c>
       <c r="B48" s="1">
-        <v>7563.0</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>7563</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>524288.0</v>
+        <v>524288</v>
       </c>
       <c r="B49" s="1">
-        <v>12135.0</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>12135</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>1048576.0</v>
+        <v>1048576</v>
       </c>
       <c r="B50" s="1">
-        <v>20851.0</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>20851</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>2097152.0</v>
+        <v>2097152</v>
       </c>
       <c r="B51" s="1">
-        <v>37506.0</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>37506</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>4194304.0</v>
+        <v>4194304</v>
       </c>
       <c r="B52" s="1">
-        <v>71602.0</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>71602</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>8388608.0</v>
+        <v>8388608</v>
       </c>
       <c r="B53" s="1">
-        <v>138711.0</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>138711</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
@@ -2768,7 +4584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>3</v>
       </c>
@@ -2782,122 +4598,122 @@
         <v>6</v>
       </c>
       <c r="E57" s="1">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>1024.0</v>
+        <v>1024</v>
       </c>
       <c r="B58" s="1">
-        <v>3465.0</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>3465</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>2048.0</v>
+        <v>2048</v>
       </c>
       <c r="B59" s="1">
-        <v>2287.0</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>4096.0</v>
+        <v>4096</v>
       </c>
       <c r="B60" s="1">
-        <v>2939.0</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>2939</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>8192.0</v>
+        <v>8192</v>
       </c>
       <c r="B61" s="1">
-        <v>2810.0</v>
-      </c>
-    </row>
-    <row r="62">
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>16384.0</v>
+        <v>16384</v>
       </c>
       <c r="B62" s="1">
-        <v>1875.0</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>32768.0</v>
+        <v>32768</v>
       </c>
       <c r="B63" s="1">
-        <v>2970.0</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>2970</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>65536.0</v>
+        <v>65536</v>
       </c>
       <c r="B64" s="1">
-        <v>3869.0</v>
-      </c>
-    </row>
-    <row r="65">
+        <v>3869</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>131072.0</v>
+        <v>131072</v>
       </c>
       <c r="B65" s="1">
-        <v>3730.0</v>
-      </c>
-    </row>
-    <row r="66">
+        <v>3730</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>262144.0</v>
+        <v>262144</v>
       </c>
       <c r="B66" s="1">
-        <v>5467.0</v>
-      </c>
-    </row>
-    <row r="67">
+        <v>5467</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>524288.0</v>
+        <v>524288</v>
       </c>
       <c r="B67" s="1">
-        <v>8478.0</v>
-      </c>
-    </row>
-    <row r="68">
+        <v>8478</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>1048576.0</v>
+        <v>1048576</v>
       </c>
       <c r="B68" s="1">
-        <v>12670.0</v>
-      </c>
-    </row>
-    <row r="69">
+        <v>12670</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>2097152.0</v>
+        <v>2097152</v>
       </c>
       <c r="B69" s="1">
-        <v>22505.0</v>
-      </c>
-    </row>
-    <row r="70">
+        <v>22505</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>4194304.0</v>
+        <v>4194304</v>
       </c>
       <c r="B70" s="1">
-        <v>40144.0</v>
-      </c>
-    </row>
-    <row r="71">
+        <v>40144</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>8388608.0</v>
+        <v>8388608</v>
       </c>
       <c r="B71" s="1">
-        <v>76306.0</v>
-      </c>
-    </row>
-    <row r="73">
+        <v>76306</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>0</v>
       </c>
@@ -2908,7 +4724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>3</v>
       </c>
@@ -2922,122 +4738,122 @@
         <v>6</v>
       </c>
       <c r="E75" s="1">
-        <v>16.0</v>
-      </c>
-    </row>
-    <row r="76">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>1024.0</v>
+        <v>1024</v>
       </c>
       <c r="B76" s="1">
-        <v>1890.0</v>
-      </c>
-    </row>
-    <row r="77">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>2048.0</v>
+        <v>2048</v>
       </c>
       <c r="B77" s="1">
-        <v>2848.0</v>
-      </c>
-    </row>
-    <row r="78">
+        <v>2848</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>4096.0</v>
+        <v>4096</v>
       </c>
       <c r="B78" s="1">
-        <v>1730.0</v>
-      </c>
-    </row>
-    <row r="79">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>8192.0</v>
+        <v>8192</v>
       </c>
       <c r="B79" s="1">
-        <v>2364.0</v>
-      </c>
-    </row>
-    <row r="80">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>16384.0</v>
+        <v>16384</v>
       </c>
       <c r="B80" s="1">
-        <v>2234.0</v>
-      </c>
-    </row>
-    <row r="81">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>32768.0</v>
+        <v>32768</v>
       </c>
       <c r="B81" s="1">
-        <v>2659.0</v>
-      </c>
-    </row>
-    <row r="82">
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>65536.0</v>
+        <v>65536</v>
       </c>
       <c r="B82" s="1">
-        <v>2862.0</v>
-      </c>
-    </row>
-    <row r="83">
+        <v>2862</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>131072.0</v>
+        <v>131072</v>
       </c>
       <c r="B83" s="1">
-        <v>3162.0</v>
-      </c>
-    </row>
-    <row r="84">
+        <v>3162</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>262144.0</v>
+        <v>262144</v>
       </c>
       <c r="B84" s="1">
-        <v>4551.0</v>
-      </c>
-    </row>
-    <row r="85">
+        <v>4551</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>524288.0</v>
+        <v>524288</v>
       </c>
       <c r="B85" s="1">
-        <v>6339.0</v>
-      </c>
-    </row>
-    <row r="86">
+        <v>6339</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>1048576.0</v>
+        <v>1048576</v>
       </c>
       <c r="B86" s="1">
-        <v>8095.0</v>
-      </c>
-    </row>
-    <row r="87">
+        <v>8095</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>2097152.0</v>
+        <v>2097152</v>
       </c>
       <c r="B87" s="1">
-        <v>12923.0</v>
-      </c>
-    </row>
-    <row r="88">
+        <v>12923</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>4194304.0</v>
+        <v>4194304</v>
       </c>
       <c r="B88" s="1">
-        <v>21981.0</v>
-      </c>
-    </row>
-    <row r="89">
+        <v>21981</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>8388608.0</v>
+        <v>8388608</v>
       </c>
       <c r="B89" s="1">
-        <v>40950.0</v>
-      </c>
-    </row>
-    <row r="91">
+        <v>40950</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>0</v>
       </c>
@@ -3048,7 +4864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>3</v>
       </c>
@@ -3062,122 +4878,122 @@
         <v>6</v>
       </c>
       <c r="E93" s="1">
-        <v>32.0</v>
-      </c>
-    </row>
-    <row r="94">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>1024.0</v>
+        <v>1024</v>
       </c>
       <c r="B94" s="1">
-        <v>2290.0</v>
-      </c>
-    </row>
-    <row r="95">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>2048.0</v>
+        <v>2048</v>
       </c>
       <c r="B95" s="1">
-        <v>2438.0</v>
-      </c>
-    </row>
-    <row r="96">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>4096.0</v>
+        <v>4096</v>
       </c>
       <c r="B96" s="1">
-        <v>2524.0</v>
-      </c>
-    </row>
-    <row r="97">
+        <v>2524</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>8192.0</v>
+        <v>8192</v>
       </c>
       <c r="B97" s="1">
-        <v>3539.0</v>
-      </c>
-    </row>
-    <row r="98">
+        <v>3539</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>16384.0</v>
+        <v>16384</v>
       </c>
       <c r="B98" s="1">
-        <v>2243.0</v>
-      </c>
-    </row>
-    <row r="99">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>32768.0</v>
+        <v>32768</v>
       </c>
       <c r="B99" s="1">
-        <v>2847.0</v>
-      </c>
-    </row>
-    <row r="100">
+        <v>2847</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>65536.0</v>
+        <v>65536</v>
       </c>
       <c r="B100" s="1">
-        <v>2526.0</v>
-      </c>
-    </row>
-    <row r="101">
+        <v>2526</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>131072.0</v>
+        <v>131072</v>
       </c>
       <c r="B101" s="1">
-        <v>2699.0</v>
-      </c>
-    </row>
-    <row r="102">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>262144.0</v>
+        <v>262144</v>
       </c>
       <c r="B102" s="1">
-        <v>3752.0</v>
-      </c>
-    </row>
-    <row r="103">
+        <v>3752</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>524288.0</v>
+        <v>524288</v>
       </c>
       <c r="B103" s="1">
-        <v>5347.0</v>
-      </c>
-    </row>
-    <row r="104">
+        <v>5347</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>1048576.0</v>
+        <v>1048576</v>
       </c>
       <c r="B104" s="1">
-        <v>6083.0</v>
-      </c>
-    </row>
-    <row r="105">
+        <v>6083</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>2097152.0</v>
+        <v>2097152</v>
       </c>
       <c r="B105" s="1">
-        <v>9650.0</v>
-      </c>
-    </row>
-    <row r="106">
+        <v>9650</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>4194304.0</v>
+        <v>4194304</v>
       </c>
       <c r="B106" s="1">
-        <v>15139.0</v>
-      </c>
-    </row>
-    <row r="107">
+        <v>15139</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>8388608.0</v>
+        <v>8388608</v>
       </c>
       <c r="B107" s="1">
-        <v>23106.0</v>
-      </c>
-    </row>
-    <row r="109">
+        <v>23106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>0</v>
       </c>
@@ -3188,7 +5004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>3</v>
       </c>
@@ -3202,122 +5018,122 @@
         <v>6</v>
       </c>
       <c r="E111" s="1">
-        <v>64.0</v>
-      </c>
-    </row>
-    <row r="112">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>1024.0</v>
+        <v>1024</v>
       </c>
       <c r="B112" s="1">
-        <v>3726.0</v>
-      </c>
-    </row>
-    <row r="113">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>2048.0</v>
+        <v>2048</v>
       </c>
       <c r="B113" s="1">
-        <v>2681.0</v>
-      </c>
-    </row>
-    <row r="114">
+        <v>2681</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>4096.0</v>
+        <v>4096</v>
       </c>
       <c r="B114" s="1">
-        <v>2320.0</v>
-      </c>
-    </row>
-    <row r="115">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>8192.0</v>
+        <v>8192</v>
       </c>
       <c r="B115" s="1">
-        <v>1736.0</v>
-      </c>
-    </row>
-    <row r="116">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>16384.0</v>
+        <v>16384</v>
       </c>
       <c r="B116" s="1">
-        <v>2054.0</v>
-      </c>
-    </row>
-    <row r="117">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>32768.0</v>
+        <v>32768</v>
       </c>
       <c r="B117" s="1">
-        <v>2267.0</v>
-      </c>
-    </row>
-    <row r="118">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>65536.0</v>
+        <v>65536</v>
       </c>
       <c r="B118" s="1">
-        <v>2475.0</v>
-      </c>
-    </row>
-    <row r="119">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>131072.0</v>
+        <v>131072</v>
       </c>
       <c r="B119" s="1">
-        <v>2873.0</v>
-      </c>
-    </row>
-    <row r="120">
+        <v>2873</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>262144.0</v>
+        <v>262144</v>
       </c>
       <c r="B120" s="1">
-        <v>3467.0</v>
-      </c>
-    </row>
-    <row r="121">
+        <v>3467</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>524288.0</v>
+        <v>524288</v>
       </c>
       <c r="B121" s="1">
-        <v>4676.0</v>
-      </c>
-    </row>
-    <row r="122">
+        <v>4676</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>1048576.0</v>
+        <v>1048576</v>
       </c>
       <c r="B122" s="1">
-        <v>6678.0</v>
-      </c>
-    </row>
-    <row r="123">
+        <v>6678</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>2097152.0</v>
+        <v>2097152</v>
       </c>
       <c r="B123" s="1">
-        <v>6524.0</v>
-      </c>
-    </row>
-    <row r="124">
+        <v>6524</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>4194304.0</v>
+        <v>4194304</v>
       </c>
       <c r="B124" s="1">
-        <v>9181.0</v>
-      </c>
-    </row>
-    <row r="125">
+        <v>9181</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>8388608.0</v>
+        <v>8388608</v>
       </c>
       <c r="B125" s="1">
-        <v>14809.0</v>
-      </c>
-    </row>
-    <row r="127">
+        <v>14809</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>0</v>
       </c>
@@ -3328,7 +5144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>3</v>
       </c>
@@ -3342,122 +5158,122 @@
         <v>6</v>
       </c>
       <c r="E129" s="1">
-        <v>128.0</v>
-      </c>
-    </row>
-    <row r="130">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <v>1024.0</v>
+        <v>1024</v>
       </c>
       <c r="B130" s="1">
-        <v>2376.0</v>
-      </c>
-    </row>
-    <row r="131">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
-        <v>2048.0</v>
+        <v>2048</v>
       </c>
       <c r="B131" s="1">
-        <v>2000.0</v>
-      </c>
-    </row>
-    <row r="132">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
-        <v>4096.0</v>
+        <v>4096</v>
       </c>
       <c r="B132" s="1">
-        <v>2908.0</v>
-      </c>
-    </row>
-    <row r="133">
+        <v>2908</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
-        <v>8192.0</v>
+        <v>8192</v>
       </c>
       <c r="B133" s="1">
-        <v>2274.0</v>
-      </c>
-    </row>
-    <row r="134">
+        <v>2274</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
-        <v>16384.0</v>
+        <v>16384</v>
       </c>
       <c r="B134" s="1">
-        <v>1918.0</v>
-      </c>
-    </row>
-    <row r="135">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
-        <v>32768.0</v>
+        <v>32768</v>
       </c>
       <c r="B135" s="1">
-        <v>2356.0</v>
-      </c>
-    </row>
-    <row r="136">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
-        <v>65536.0</v>
+        <v>65536</v>
       </c>
       <c r="B136" s="1">
-        <v>2000.0</v>
-      </c>
-    </row>
-    <row r="137">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
-        <v>131072.0</v>
+        <v>131072</v>
       </c>
       <c r="B137" s="1">
-        <v>2652.0</v>
-      </c>
-    </row>
-    <row r="138">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
-        <v>262144.0</v>
+        <v>262144</v>
       </c>
       <c r="B138" s="1">
-        <v>3449.0</v>
-      </c>
-    </row>
-    <row r="139">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
-        <v>524288.0</v>
+        <v>524288</v>
       </c>
       <c r="B139" s="1">
-        <v>4391.0</v>
-      </c>
-    </row>
-    <row r="140">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
-        <v>1048576.0</v>
+        <v>1048576</v>
       </c>
       <c r="B140" s="1">
-        <v>5464.0</v>
-      </c>
-    </row>
-    <row r="141">
+        <v>5464</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
-        <v>2097152.0</v>
+        <v>2097152</v>
       </c>
       <c r="B141" s="1">
-        <v>7182.0</v>
-      </c>
-    </row>
-    <row r="142">
+        <v>7182</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
-        <v>4194304.0</v>
+        <v>4194304</v>
       </c>
       <c r="B142" s="1">
-        <v>9001.0</v>
-      </c>
-    </row>
-    <row r="143">
+        <v>9001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
-        <v>8388608.0</v>
+        <v>8388608</v>
       </c>
       <c r="B143" s="1">
-        <v>14390.0</v>
-      </c>
-    </row>
-    <row r="145">
+        <v>14390</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>0</v>
       </c>
@@ -3468,7 +5284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>3</v>
       </c>
@@ -3482,122 +5298,122 @@
         <v>6</v>
       </c>
       <c r="E147" s="1">
-        <v>256.0</v>
-      </c>
-    </row>
-    <row r="148">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
-        <v>1024.0</v>
+        <v>1024</v>
       </c>
       <c r="B148" s="1">
-        <v>1800.0</v>
-      </c>
-    </row>
-    <row r="149">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
-        <v>2048.0</v>
+        <v>2048</v>
       </c>
       <c r="B149" s="1">
-        <v>2904.0</v>
-      </c>
-    </row>
-    <row r="150">
+        <v>2904</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
-        <v>4096.0</v>
+        <v>4096</v>
       </c>
       <c r="B150" s="1">
-        <v>1790.0</v>
-      </c>
-    </row>
-    <row r="151">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
-        <v>8192.0</v>
+        <v>8192</v>
       </c>
       <c r="B151" s="1">
-        <v>1715.0</v>
-      </c>
-    </row>
-    <row r="152">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
-        <v>16384.0</v>
+        <v>16384</v>
       </c>
       <c r="B152" s="1">
-        <v>2458.0</v>
-      </c>
-    </row>
-    <row r="153">
+        <v>2458</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
-        <v>32768.0</v>
+        <v>32768</v>
       </c>
       <c r="B153" s="1">
-        <v>2378.0</v>
-      </c>
-    </row>
-    <row r="154">
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
-        <v>65536.0</v>
+        <v>65536</v>
       </c>
       <c r="B154" s="1">
-        <v>2518.0</v>
-      </c>
-    </row>
-    <row r="155">
+        <v>2518</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
-        <v>131072.0</v>
+        <v>131072</v>
       </c>
       <c r="B155" s="1">
-        <v>2688.0</v>
-      </c>
-    </row>
-    <row r="156">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
-        <v>262144.0</v>
+        <v>262144</v>
       </c>
       <c r="B156" s="1">
-        <v>3487.0</v>
-      </c>
-    </row>
-    <row r="157">
+        <v>3487</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
-        <v>524288.0</v>
+        <v>524288</v>
       </c>
       <c r="B157" s="1">
-        <v>4628.0</v>
-      </c>
-    </row>
-    <row r="158">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
-        <v>1048576.0</v>
+        <v>1048576</v>
       </c>
       <c r="B158" s="1">
-        <v>5879.0</v>
-      </c>
-    </row>
-    <row r="159">
+        <v>5879</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
-        <v>2097152.0</v>
+        <v>2097152</v>
       </c>
       <c r="B159" s="1">
-        <v>6406.0</v>
-      </c>
-    </row>
-    <row r="160">
+        <v>6406</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
-        <v>4194304.0</v>
+        <v>4194304</v>
       </c>
       <c r="B160" s="1">
-        <v>9001.0</v>
-      </c>
-    </row>
-    <row r="161">
+        <v>9001</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
-        <v>8388608.0</v>
+        <v>8388608</v>
       </c>
       <c r="B161" s="1">
-        <v>14422.0</v>
-      </c>
-    </row>
-    <row r="163">
+        <v>14422</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>0</v>
       </c>
@@ -3608,7 +5424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>3</v>
       </c>
@@ -3622,132 +5438,133 @@
         <v>6</v>
       </c>
       <c r="E165" s="1">
-        <v>512.0</v>
-      </c>
-    </row>
-    <row r="166">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
-        <v>1024.0</v>
+        <v>1024</v>
       </c>
       <c r="B166" s="1">
-        <v>1749.0</v>
-      </c>
-    </row>
-    <row r="167">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
-        <v>2048.0</v>
+        <v>2048</v>
       </c>
       <c r="B167" s="1">
-        <v>2227.0</v>
-      </c>
-    </row>
-    <row r="168">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
-        <v>4096.0</v>
+        <v>4096</v>
       </c>
       <c r="B168" s="1">
-        <v>2228.0</v>
-      </c>
-    </row>
-    <row r="169">
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
-        <v>8192.0</v>
+        <v>8192</v>
       </c>
       <c r="B169" s="1">
-        <v>3003.0</v>
-      </c>
-    </row>
-    <row r="170">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
-        <v>16384.0</v>
+        <v>16384</v>
       </c>
       <c r="B170" s="1">
-        <v>3438.0</v>
-      </c>
-    </row>
-    <row r="171">
+        <v>3438</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
-        <v>32768.0</v>
+        <v>32768</v>
       </c>
       <c r="B171" s="1">
-        <v>3508.0</v>
-      </c>
-    </row>
-    <row r="172">
+        <v>3508</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
-        <v>65536.0</v>
+        <v>65536</v>
       </c>
       <c r="B172" s="1">
-        <v>2319.0</v>
-      </c>
-    </row>
-    <row r="173">
+        <v>2319</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
-        <v>131072.0</v>
+        <v>131072</v>
       </c>
       <c r="B173" s="1">
-        <v>2926.0</v>
-      </c>
-    </row>
-    <row r="174">
+        <v>2926</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
-        <v>262144.0</v>
+        <v>262144</v>
       </c>
       <c r="B174" s="1">
-        <v>3385.0</v>
-      </c>
-    </row>
-    <row r="175">
+        <v>3385</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
-        <v>524288.0</v>
+        <v>524288</v>
       </c>
       <c r="B175" s="1">
-        <v>4503.0</v>
-      </c>
-    </row>
-    <row r="176">
+        <v>4503</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
-        <v>1048576.0</v>
+        <v>1048576</v>
       </c>
       <c r="B176" s="1">
-        <v>4865.0</v>
-      </c>
-    </row>
-    <row r="177">
+        <v>4865</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
-        <v>2097152.0</v>
+        <v>2097152</v>
       </c>
       <c r="B177" s="1">
-        <v>6558.0</v>
-      </c>
-    </row>
-    <row r="178">
+        <v>6558</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
-        <v>4194304.0</v>
+        <v>4194304</v>
       </c>
       <c r="B178" s="1">
-        <v>8957.0</v>
-      </c>
-    </row>
-    <row r="179">
+        <v>8957</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
-        <v>8388608.0</v>
+        <v>8388608</v>
       </c>
       <c r="B179" s="1">
-        <v>15030.0</v>
-      </c>
-    </row>
-    <row r="186">
+        <v>15030</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:2" ht="12.55" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>